--- a/biology/Botanique/Lycopersicon/Lycopersicon.xlsx
+++ b/biology/Botanique/Lycopersicon/Lycopersicon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycopersicon est un sous-genre de plantes à fleurs du genre Solanum et de la famille des Solanacées, originaire d'Amérique et autrefois considéré comme un genre à part entière. L'espèce de loin la plus répandue est la tomate (Solanum lycopersicum, autrefois Lycopersicon esculentum), légume cultivé dans le monde entier.
 Le nom attribué à ce sous-genre, Lycopersicon, signifie littéralement « pêche de loup », et fait référence au caractère toxique attribué initialement aux fruits de la tomate.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon les classifications les plus récentes, comme la classification APG III, le genre Lycopersicon n'est pas reconnu et les espèces sont incluses au sein du sous-genre Lycopersicon dans le genre Solanum.
 </t>
@@ -569,17 +585,19 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 juillet 2018)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (2 juillet 2018) :
 Lycopersicon cheesmanii Riley
-Selon The Plant List            (2 juillet 2018)[2] :
+Selon The Plant List            (2 juillet 2018) :
 Lycopersicon chmielewskii C.M. Rick, Kesicki, Fobes &amp; M.Holle
 Lycopersicon esculentum Mill.
 Lycopersicon hirsutum Dunal
 Lycopersicon parviflorum C.M. Rick, Kesicki, Fobes &amp; M.Holle
 Lycopersicon pennellii (Correll) D'Arcy
-Selon Tropicos                                           (2 juillet 2018)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (2 juillet 2018) (Attention liste brute contenant possiblement des synonymes) :
 Lycopersicon agrimoniifolium Ruiz &amp; Pav. ex Dunal
 Lycopersicon atacamense Phil.
 Lycopersicon bipinnatifidum Phil.
@@ -606,8 +624,43 @@
 Lycopersicon regulare Dunal
 Lycopersicon spurium Link
 Lycopersicon ×humboldtii Dunal
-Autre classification[réf. nécessaire]
-Lycopersicon cheesmaniae L. Riley, la « tomate des Galapagos », elle est tolérante au sel ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lycopersicon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lycopersicon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autre classification[réf. nécessaire]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lycopersicon cheesmaniae L. Riley, la « tomate des Galapagos », elle est tolérante au sel ;
 Lycopersicon chilense Dunal, pousse dans les environnements secs du sud chilien, où son enracinement profond lui permet d'exploiter les rares réserves en eau. Elle a de longs bouquets floraux, de 14 à 20 centimètres ;
 Lycopersicon chmielewskii C. M. Rick et al., pousse dans les zones montagneuses (1000–3000 m) et humides des Andes ;
 Lycopersicon esculentum Mill., la tomate cultivée ;
@@ -620,31 +673,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Lycopersicon</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lycopersicon</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est originaire d'Amérique centrale et d'Amérique du Sud, du Mexique à au Chili.
 </t>
